--- a/blog/posts/JuneTraining/data/June.xlsx
+++ b/blog/posts/JuneTraining/data/June.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/edwardcr_qut_edu_au/Documents/Research/_website/edwchris.github.io/blog/posts/MayProgram/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/edwardcr_qut_edu_au/Documents/Research/_website/edwchris.github.io/blog/posts/JuneTraining/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{47611721-5055-4085-82E7-0FAFA3913107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACFC7BF9-B437-43F6-B531-6CFE07EEB79D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{47611721-5055-4085-82E7-0FAFA3913107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C2EA273-E973-45D4-B47B-19B6EC53920F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{91CA0F68-18E3-4C81-872C-2247EA87DE44}"/>
+    <workbookView xWindow="8690" yWindow="3100" windowWidth="25420" windowHeight="13920" xr2:uid="{91CA0F68-18E3-4C81-872C-2247EA87DE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Week starting</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Gym</t>
   </si>
   <si>
-    <t>As above</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -68,70 +65,52 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>5th May</t>
-  </si>
-  <si>
-    <t>19th May</t>
-  </si>
-  <si>
-    <t>12th May</t>
-  </si>
-  <si>
-    <t>26th May</t>
-  </si>
-  <si>
-    <t>1:20 hours easy to HR</t>
-  </si>
-  <si>
-    <t>1:25 hours easy to HR</t>
-  </si>
-  <si>
-    <t>1:35 hours easy to HR</t>
-  </si>
-  <si>
-    <t>Noosa HM</t>
-  </si>
-  <si>
-    <t>14k with 8k at MP</t>
-  </si>
-  <si>
-    <t>16k with 10k at MP</t>
-  </si>
-  <si>
-    <t>28k with 3 x 4k at MP</t>
-  </si>
-  <si>
-    <t>30k with 3 x 4k at MP plus 2k at HMP (last effort)</t>
-  </si>
-  <si>
-    <t>2:20 hours easy to HR</t>
-  </si>
-  <si>
-    <t>as above</t>
-  </si>
-  <si>
-    <t>12k easy to HR</t>
-  </si>
-  <si>
-    <t>(a) 14k with 2 x 3k at MP or (b) or (c) as below</t>
-  </si>
-  <si>
     <t>16k easy to HR with 2k at HMP</t>
   </si>
   <si>
-    <t xml:space="preserve">10k easy to HR with 2 x 500m at HMP </t>
-  </si>
-  <si>
-    <t>Rest day or 30min very slow jog</t>
-  </si>
-  <si>
-    <t>5k easy with 6 to 8 100m efforts to 4:05 pace.</t>
-  </si>
-  <si>
-    <t>10km easy</t>
-  </si>
-  <si>
     <t>Watts thresholds with 4K WU and WD</t>
+  </si>
+  <si>
+    <t>2nd June</t>
+  </si>
+  <si>
+    <t>9th June</t>
+  </si>
+  <si>
+    <t>16th June</t>
+  </si>
+  <si>
+    <t>As above but 20k</t>
+  </si>
+  <si>
+    <t>1:40 hours easy to HR</t>
+  </si>
+  <si>
+    <t>1:45 hours easy to HR</t>
+  </si>
+  <si>
+    <t>16k with 12k at MP</t>
+  </si>
+  <si>
+    <t>32k with 4 x 4k at MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest  </t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Top end of Zone2 (Garmin) 2:30hours</t>
+  </si>
+  <si>
+    <t>18k build from 5:40  to 4:10 pace- 1k steady at end</t>
+  </si>
+  <si>
+    <t>20k with 16km at MP*</t>
+  </si>
+  <si>
+    <t>34K with 4 x 5K at MP^</t>
   </si>
 </sst>
 </file>
@@ -511,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026914DF-6687-4189-A0CE-D433ADC94678}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -546,39 +525,39 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -588,75 +567,49 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
